--- a/SeleniumFramework_10_30/src/test/resources/TestscriptData.xlsx
+++ b/SeleniumFramework_10_30/src/test/resources/TestscriptData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikra\eclipse-workspace\SeleniumFramework_10_30\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikra\git\repository3\SeleniumFramework_10_30\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27BF1E4-8E21-47BE-B605-5D0DF986BF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D5F29E-081C-4E1D-8967-0B2E4239E6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{A95873CE-8C4B-44BD-BC81-E49CDF369D7F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>abhis1234@gmail.com</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Demo Web Shop. Books</t>
+  </si>
+  <si>
+    <t>ExpectedTitle</t>
   </si>
 </sst>
 </file>
@@ -556,9 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071411EE-6D00-40A3-BA51-1FCCAE87D544}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -567,7 +568,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
